--- a/src/import-data/import-order-heads.xlsx
+++ b/src/import-data/import-order-heads.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankoj\Desktop\WMS.React\src\import-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6540193-787F-48E7-9784-4B308BD29CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-21612" yWindow="1872" windowWidth="21600" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
+    <t>Tip dokumenta</t>
+  </si>
+  <si>
+    <t>skladisce</t>
+  </si>
+  <si>
+    <t>beleska</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Skladisce 60</t>
+  </si>
+  <si>
+    <t>Skladisce 61</t>
+  </si>
+  <si>
+    <t>Skladisce 62</t>
+  </si>
+  <si>
+    <t>Skladisce 63</t>
+  </si>
+  <si>
+    <t>Skladisce 64</t>
+  </si>
+  <si>
+    <t>Skladisce 65</t>
+  </si>
+  <si>
+    <t>Skladisce 66</t>
+  </si>
+  <si>
+    <t>Skladisce 67</t>
+  </si>
+  <si>
+    <t>Skladisce 68</t>
+  </si>
+  <si>
+    <t>Skladisce 69</t>
+  </si>
+  <si>
+    <t>Skladisce 70</t>
+  </si>
+  <si>
+    <t>Skladisce 71</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,13 +398,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(14,14444)</f>
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" ca="1" si="0">RANDBETWEEN(14,14444)</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>12287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>11876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>